--- a/Assignment_1/Case_1/commandline arguments.xlsx
+++ b/Assignment_1/Case_1/commandline arguments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Prasad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA6E026-36F3-4825-A8DE-132C8383C894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1314C-7938-455B-8B4D-2790C3877197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8712" yWindow="2460" windowWidth="14328" windowHeight="7788" xr2:uid="{B5C58DD3-0DDB-4286-8BE4-E01EBB29D35E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5C58DD3-0DDB-4286-8BE4-E01EBB29D35E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Passing an integer,charater,string,float</t>
-  </si>
-  <si>
     <t>1 A Sss 4.565</t>
   </si>
   <si>
@@ -66,37 +63,76 @@
     <t>PASS</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>Passing a float, integer,charater,string</t>
-  </si>
-  <si>
-    <t>Passing a charater, integer,string,float</t>
-  </si>
-  <si>
-    <t>Passing a string, integer,charater,float</t>
-  </si>
-  <si>
-    <t>A 1 Sss 4.565</t>
-  </si>
-  <si>
-    <t>Sss 1 A  4.565</t>
-  </si>
-  <si>
-    <t>4.565 1 A  Sss</t>
-  </si>
-  <si>
-    <t>character value   A   1                                      integer value       1      4                           string value      Sss     3                            float value    4.565     4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float value    4.565     4                     integer value       1      4   character value   A   1                        string value      Sss     3                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">float value    4.565     4                     integer value       1      4   character value   A   1                        string value      Sss     3     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">string value      Sss     3                     integer value       1      4   character value   A   1                         float value    4.565     4   </t>
+    <t>prasanna</t>
+  </si>
+  <si>
+    <t>Parser.exe argv[v],datatype1 ,datatype2,….datatypeN</t>
+  </si>
+  <si>
+    <t>In command line arguments pass -h to display</t>
+  </si>
+  <si>
+    <t>int     1      4                                                    int     2      4</t>
+  </si>
+  <si>
+    <t>int         1         4                                                          char       a         1                                    float    2.2       4</t>
+  </si>
+  <si>
+    <t>string    Abcd        8                                          int         234         4                                                float      432.5    4</t>
+  </si>
+  <si>
+    <t>string          -h         8                                           string         -h         8</t>
+  </si>
+  <si>
+    <t>string            -h          8                                                   string              -h         8</t>
+  </si>
+  <si>
+    <t>string          prasanna         8</t>
+  </si>
+  <si>
+    <t>string          prasanna      8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  noinput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        -h  -h</t>
+  </si>
+  <si>
+    <t>1      a      2.2</t>
+  </si>
+  <si>
+    <t>Abcd       234       432.5</t>
+  </si>
+  <si>
+    <t>1    2</t>
+  </si>
+  <si>
+    <t>passing    char,int,float</t>
+  </si>
+  <si>
+    <t>passing    string ,int,float</t>
+  </si>
+  <si>
+    <t>passing    integer</t>
+  </si>
+  <si>
+    <t>Passing     string</t>
+  </si>
+  <si>
+    <t>Passing   " noinput"</t>
+  </si>
+  <si>
+    <t>Passing   " -h -h"</t>
+  </si>
+  <si>
+    <t>Passing   "-h"</t>
+  </si>
+  <si>
+    <t>Passing  an integer,charater,string,float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -h</t>
   </si>
 </sst>
 </file>
@@ -145,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -165,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E91E63D-009B-4F4D-8589-1B818296F64D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" activeCellId="1" sqref="B4 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,19 +561,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -542,19 +581,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -562,19 +601,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -582,38 +621,100 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
